--- a/Test Artifacts/Checklist.xlsx
+++ b/Test Artifacts/Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Current Weather Data" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="116">
   <si>
     <t>Project:</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Get weather with incorrect country code returns 404 code</t>
   </si>
   <si>
-    <t>BUG_122</t>
-  </si>
-  <si>
     <t>Get weather by name and geographic coordinates returns same city name</t>
   </si>
   <si>
@@ -184,18 +181,6 @@
   </si>
   <si>
     <t>Get weather map Temperature</t>
-  </si>
-  <si>
-    <t>Get weather map without specifying layer returns 400 code</t>
-  </si>
-  <si>
-    <t>Get weather map for incorrect layer name returns 404 code</t>
-  </si>
-  <si>
-    <t>BUG_123</t>
-  </si>
-  <si>
-    <t>BUG_124</t>
   </si>
   <si>
     <t>Low</t>
@@ -1807,6 +1792,15 @@
       </rPr>
       <t>{{URL}}/data/2.5/weather?APPID={{APPID}}&amp;lat={{search_lat}}&amp;lon={{search_lon}}</t>
     </r>
+  </si>
+  <si>
+    <t>Get weather map without specifying layer returns 500 code</t>
+  </si>
+  <si>
+    <t>Get weather map for incorrect layer name returns 500 code</t>
+  </si>
+  <si>
+    <t>BUG_127</t>
   </si>
 </sst>
 </file>
@@ -2342,6 +2336,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2356,15 +2359,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3220,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H31"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,15 +3232,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -3341,7 +3335,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3364,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>8</v>
@@ -3387,7 +3381,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>20</v>
@@ -3398,7 +3392,7 @@
       <c r="G13" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
@@ -3408,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>19</v>
@@ -3419,7 +3413,7 @@
       <c r="G14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15">
@@ -3429,7 +3423,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>18</v>
@@ -3440,7 +3434,7 @@
       <c r="G15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
@@ -3450,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>21</v>
@@ -3461,7 +3455,7 @@
       <c r="G16" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="50"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
@@ -3471,7 +3465,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>22</v>
@@ -3482,7 +3476,7 @@
       <c r="G17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15">
@@ -3492,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>12</v>
@@ -3503,7 +3497,7 @@
       <c r="G18" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15">
@@ -3513,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>23</v>
@@ -3524,7 +3518,7 @@
       <c r="G19" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15">
@@ -3534,7 +3528,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>24</v>
@@ -3545,7 +3539,7 @@
       <c r="G20" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15">
@@ -3555,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>25</v>
@@ -3566,17 +3560,17 @@
       <c r="G21" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="2:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15">
         <v>10</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>26</v>
@@ -3587,7 +3581,7 @@
       <c r="G22" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="50"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15">
@@ -3597,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" s="44" t="s">
         <v>27</v>
@@ -3608,7 +3602,7 @@
       <c r="G23" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="50"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15">
@@ -3618,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>28</v>
@@ -3629,7 +3623,7 @@
       <c r="G24" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15">
@@ -3639,10 +3633,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>14</v>
@@ -3650,7 +3644,7 @@
       <c r="G25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15">
@@ -3660,7 +3654,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>29</v>
@@ -3671,17 +3665,17 @@
       <c r="G26" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15">
         <v>15</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>30</v>
@@ -3692,17 +3686,17 @@
       <c r="G27" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15">
         <v>16</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>31</v>
@@ -3713,20 +3707,20 @@
       <c r="G28" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15">
         <v>17</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>14</v>
@@ -3734,17 +3728,17 @@
       <c r="G29" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="50"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15">
         <v>18</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>32</v>
@@ -3755,20 +3749,20 @@
       <c r="G30" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="50"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="2:8" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="15">
         <v>19</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>15</v>
@@ -3776,8 +3770,8 @@
       <c r="G31" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="50" t="s">
-        <v>33</v>
+      <c r="H31" s="45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,13 +3784,13 @@
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
@@ -3900,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3918,15 +3912,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4021,7 +4015,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4044,7 +4038,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>8</v>
@@ -4067,10 +4061,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>14</v>
@@ -4088,10 +4082,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>14</v>
@@ -4109,10 +4103,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>14</v>
@@ -4130,10 +4124,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>14</v>
@@ -4171,13 +4165,13 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
@@ -4257,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4275,15 +4269,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4378,7 +4372,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4401,7 +4395,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>8</v>
@@ -4424,10 +4418,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>14</v>
@@ -4435,7 +4429,7 @@
       <c r="G13" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="51"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15">
@@ -4445,10 +4439,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>14</v>
@@ -4456,7 +4450,7 @@
       <c r="G14" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15">
@@ -4466,10 +4460,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>14</v>
@@ -4477,7 +4471,7 @@
       <c r="G15" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
@@ -4487,10 +4481,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>14</v>
@@ -4498,7 +4492,7 @@
       <c r="G16" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15">
@@ -4508,10 +4502,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>14</v>
@@ -4519,53 +4513,49 @@
       <c r="G17" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15">
         <v>29</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>47</v>
-      </c>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15">
         <v>30</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="52" t="s">
-        <v>48</v>
-      </c>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
@@ -4595,13 +4585,13 @@
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
@@ -4697,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4715,15 +4705,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -4818,7 +4808,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4842,7 +4832,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>8</v>
@@ -4866,10 +4856,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>14</v>
@@ -4888,10 +4878,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>14</v>
@@ -4931,13 +4921,13 @@
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
@@ -5017,7 +5007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B19"/>
     </sheetView>
   </sheetViews>
@@ -5035,15 +5025,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -5138,7 +5128,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5161,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>8</v>
@@ -5184,10 +5174,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>14</v>
@@ -5205,10 +5195,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>14</v>
@@ -5226,10 +5216,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>14</v>
@@ -5247,10 +5237,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>14</v>
@@ -5268,10 +5258,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>14</v>
@@ -5286,13 +5276,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>14</v>
@@ -5307,13 +5297,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>14</v>
@@ -5351,13 +5341,13 @@
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
@@ -5437,7 +5427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B20"/>
     </sheetView>
   </sheetViews>
@@ -5455,15 +5445,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -5558,7 +5548,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5581,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>8</v>
@@ -5604,10 +5594,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>14</v>
@@ -5625,10 +5615,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>14</v>
@@ -5646,10 +5636,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>14</v>
@@ -5667,10 +5657,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>14</v>
@@ -5688,10 +5678,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>14</v>
@@ -5709,10 +5699,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>14</v>
@@ -5730,10 +5720,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>14</v>
@@ -5751,10 +5741,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>14</v>
@@ -5792,13 +5782,13 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
@@ -5894,7 +5884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -5912,15 +5902,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
@@ -6015,7 +6005,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -6038,7 +6028,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>8</v>
@@ -6061,10 +6051,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>14</v>
@@ -6082,10 +6072,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>14</v>
@@ -6132,13 +6122,13 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>

--- a/Test Artifacts/Checklist.xlsx
+++ b/Test Artifacts/Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Current Weather Data" sheetId="11" r:id="rId1"/>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4251,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -4687,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -5007,7 +5007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B19"/>
     </sheetView>
   </sheetViews>
